--- a/biology/Zoologie/Bombycillidae/Bombycillidae.xlsx
+++ b/biology/Zoologie/Bombycillidae/Bombycillidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombycilla
 Bombycillidae (ou bombycillidés) est le nom d'une famille d'oiseaux faisant partie de l'ordre des passériformes et constituée du seul genre Bombycilla, ce dernier se sub-divisant en trois espèces.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Le nom de cette famille vient du genre Bombycilla qui signifie « queue de soie » (du grec bombux ver à soie et d'un faux mot latin cilla utilisé pour désigner la queue de certains oiseaux).
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette famille vient du genre Bombycilla qui signifie « queue de soie » (du grec bombux ver à soie et d'un faux mot latin cilla utilisé pour désigner la queue de certains oiseaux).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bombycillidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombycillidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Bombycilla garrulus – Jaseur boréal
 Bombycilla japonica – Jaseur du Japon
 Bombycilla cedrorum – Jaseur d'Amérique</t>
